--- a/davis-km-project/kubelka-munk-colors.xlsx
+++ b/davis-km-project/kubelka-munk-colors.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\colors\Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Documents\GitHub\davis-pigment-mixing\davis-km-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEFBFFE5-1583-4F07-854E-9120B6505181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C617AE-52E0-41F2-B2B0-B09017E150C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{43FEFABB-2B2E-4D8A-9858-0BD2F132905E}"/>
   </bookViews>
@@ -67,30 +67,6 @@
           </rPr>
           <t xml:space="preserve">
 Higher value means more of that wavelength is reflected. Higher reflectance = more of that color.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{C2A45C27-C626-4BDC-A205-E7A0F0DCB943}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Steven:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Generally raising this means a color is brighter and more opaque. Raise it for the color you want.</t>
         </r>
       </text>
     </comment>
@@ -251,10 +227,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -577,7 +549,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F86AB4-A038-4FDC-80E7-AFB317DA7755}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B40" sqref="B40:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2429,6 +2401,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <f>SUM(B2:B39)</f>
+        <v>30.78</v>
+      </c>
+      <c r="D40" s="1">
+        <f>SUM(D2:D39)</f>
+        <v>2.6399999999999975</v>
+      </c>
+      <c r="E40">
+        <f>SUM(E2:E39)</f>
+        <v>22.799999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2437,10 +2423,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986E6D16-BB58-490F-82E5-028966418FB3}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="B40" sqref="B40:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3361,6 +3347,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <f>SUM(B2:B39)</f>
+        <v>9.5499999999999954</v>
+      </c>
+      <c r="D40" s="1">
+        <f>SUM(D2:D39)</f>
+        <v>40.630000000000003</v>
+      </c>
+      <c r="E40">
+        <f>SUM(E2:E39)</f>
+        <v>5.4499999999999993</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3369,10 +3369,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4514F9A8-DF47-4042-A49F-652BB95EDF96}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4292,6 +4292,20 @@
         <v>0.01</v>
       </c>
     </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <f>SUM(B2:B39)</f>
+        <v>16.164999999999999</v>
+      </c>
+      <c r="D40" s="1">
+        <f>SUM(D2:D39)</f>
+        <v>15.45</v>
+      </c>
+      <c r="E40">
+        <f>SUM(E2:E39)</f>
+        <v>1.4595</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4300,10 +4314,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90129177-B016-4586-86DB-68B54357AFD7}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4363,11 +4377,11 @@
         <v>390</v>
       </c>
       <c r="B3" s="1">
-        <v>0.2</v>
+        <v>0.19999999999999993</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C39" si="0" xml:space="preserve"> (POWER(1-B3,2) / (2*B3))</f>
-        <v>1.6000000000000003</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D39" si="1">ROUND(E3*C3,2)</f>
@@ -4385,7 +4399,7 @@
       </c>
       <c r="I3" t="str">
         <f>_xlfn.VALUETOTEXT(_xlfn.TEXTJOIN(",",TRUE,$D$2:$D$39))</f>
-        <v>0.9,0.16,0.11,0.09,0.08,0.06,0.05,0.04,0.05,0.05,0.04,0.04,0.04,0.02,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0.01,0.01,0.01,0.01,0.01,0.01,0.01</v>
+        <v>0.9,0.16,0.13,0.11,0.09,0.08,0.07,0.06,0.07,0.1,0.1,0.12,0.1,0.01,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0.01,0.01,0.01,0.01</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4393,15 +4407,15 @@
         <v>400</v>
       </c>
       <c r="B4" s="1">
-        <v>0.25</v>
+        <v>0.22727272727272721</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>1.125</v>
+        <v>1.3136363636363644</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="E4" s="1">
         <v>9.9999999999999978E-2</v>
@@ -4423,15 +4437,15 @@
         <v>410</v>
       </c>
       <c r="B5" s="1">
-        <v>0.27891149521140179</v>
+        <v>0.25454545454545452</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0.93213912059118342</v>
+        <v>1.0915584415584416</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="1">
         <v>9.9999999999999992E-2</v>
@@ -4446,15 +4460,15 @@
         <v>420</v>
       </c>
       <c r="B6" s="1">
-        <v>0.31116648864423924</v>
+        <v>0.28181818181818175</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.76244008221142279</v>
+        <v>0.91510263929618807</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E6" s="1">
         <v>9.9999999999999992E-2</v>
@@ -4469,15 +4483,15 @@
         <v>430</v>
       </c>
       <c r="B7" s="1">
-        <v>0.3471516424297858</v>
+        <v>0.30909090909090908</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.61386858924098398</v>
+        <v>0.77219251336898398</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E7" s="1">
         <v>0.1</v>
@@ -4492,15 +4506,15 @@
         <v>440</v>
       </c>
       <c r="B8" s="1">
-        <v>0.38729833462074187</v>
+        <v>0.33636363636363631</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.4846436160461759</v>
+        <v>0.65466830466830483</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E8" s="1">
         <v>0.1</v>
@@ -4519,15 +4533,15 @@
         <v>450</v>
       </c>
       <c r="B9" s="1">
-        <v>0.43208783040782778</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>0.37321605663653207</v>
+        <v>0.55681818181818177</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E9" s="1">
         <v>0.10000000000000009</v>
@@ -4542,15 +4556,15 @@
         <v>460</v>
       </c>
       <c r="B10" s="1">
-        <v>0.45</v>
+        <v>0.39090909090909087</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.33611111111111114</v>
+        <v>0.47452431289640601</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E10" s="1">
         <v>0.15</v>
@@ -4565,15 +4579,15 @@
         <v>470</v>
       </c>
       <c r="B11" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.41818181818181821</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0.18409090909090903</v>
+        <v>0.40474308300395251</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E11" s="1">
         <v>0.25</v>
@@ -4588,15 +4602,15 @@
         <v>480</v>
       </c>
       <c r="B12" s="1">
-        <v>0.60000000000000098</v>
+        <v>0.44545454545454544</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>0.13333333333333247</v>
+        <v>0.34517625231910948</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="E12" s="1">
         <v>0.3</v>
@@ -4611,15 +4625,15 @@
         <v>490</v>
       </c>
       <c r="B13" s="1">
-        <v>0.65</v>
+        <v>0.47272727272727277</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>9.4230769230769215E-2</v>
+        <v>0.29405594405594399</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="E13" s="1">
         <v>0.4</v>
@@ -4634,15 +4648,15 @@
         <v>500</v>
       </c>
       <c r="B14" s="1">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>9.4230769230769215E-2</v>
+        <v>0.25</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="E14" s="1">
         <v>0.4</v>
@@ -4657,15 +4671,15 @@
         <v>510</v>
       </c>
       <c r="B15" s="1">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>2.4999999999999988E-2</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E15" s="1">
         <v>0.55000000000000004</v>
@@ -4680,11 +4694,11 @@
         <v>520</v>
       </c>
       <c r="B16" s="1">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>1.3157894736842129E-3</v>
+        <v>4.6391752577319673E-4</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
@@ -4703,11 +4717,11 @@
         <v>530</v>
       </c>
       <c r="B17" s="1">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="0"/>
-        <v>1.3157894736842129E-3</v>
+        <v>4.6391752577319673E-4</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="1"/>
@@ -4726,11 +4740,11 @@
         <v>540</v>
       </c>
       <c r="B18" s="1">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
-        <v>1.3157894736842129E-3</v>
+        <v>4.6391752577319673E-4</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="1"/>
@@ -4841,11 +4855,11 @@
         <v>590</v>
       </c>
       <c r="B23" s="1">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>1.3157894736842129E-3</v>
+        <v>4.6391752577319673E-4</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="1"/>
@@ -4864,11 +4878,11 @@
         <v>600</v>
       </c>
       <c r="B24" s="1">
-        <v>0.92021049304169455</v>
+        <v>0.93</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
-        <v>3.4591897553818778E-3</v>
+        <v>2.6344086021505338E-3</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="1"/>
@@ -4887,11 +4901,11 @@
         <v>610</v>
       </c>
       <c r="B25" s="1">
-        <v>0.91535445054837206</v>
+        <v>0.92466666666666675</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
-        <v>3.913712899781964E-3</v>
+        <v>3.0687334775294332E-3</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="1"/>
@@ -4910,11 +4924,11 @@
         <v>620</v>
       </c>
       <c r="B26" s="1">
-        <v>0.91052403387531033</v>
+        <v>0.91933333333333334</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
-        <v>4.3963411266983478E-3</v>
+        <v>3.539037950205463E-3</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="1"/>
@@ -4933,11 +4947,11 @@
         <v>630</v>
       </c>
       <c r="B27" s="1">
-        <v>0.90571910779250198</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="0"/>
-        <v>4.9070879475572923E-3</v>
+        <v>4.0459518599562328E-3</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="1"/>
@@ -4956,11 +4970,11 @@
         <v>640</v>
       </c>
       <c r="B28" s="1">
-        <v>0.90093953778356128</v>
+        <v>0.90866666666666662</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="0"/>
-        <v>5.4459676609796646E-3</v>
+        <v>4.5901198337001759E-3</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="1"/>
@@ -4979,11 +4993,11 @@
         <v>650</v>
       </c>
       <c r="B29" s="1">
-        <v>0.89618519004195907</v>
+        <v>0.90333333333333332</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="0"/>
-        <v>6.0129953531811633E-3</v>
+        <v>5.1722017220172216E-3</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="1"/>
@@ -5002,11 +5016,11 @@
         <v>660</v>
       </c>
       <c r="B30" s="1">
-        <v>0.89145593146727664</v>
+        <v>0.89799999999999991</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="0"/>
-        <v>6.608186898394668E-3</v>
+        <v>5.7928730512249553E-3</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="1"/>
@@ -5025,11 +5039,11 @@
         <v>670</v>
       </c>
       <c r="B31" s="1">
-        <v>0.88675162966147947</v>
+        <v>0.89266666666666661</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="0"/>
-        <v>7.2315589593146615E-3</v>
+        <v>6.4528254916604499E-3</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="1"/>
@@ -5048,11 +5062,11 @@
         <v>680</v>
       </c>
       <c r="B32" s="1">
-        <v>0.88207215292521046</v>
+        <v>0.8873333333333332</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="0"/>
-        <v>7.8831289875637301E-3</v>
+        <v>7.1527673428500062E-3</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="1"/>
@@ -5071,15 +5085,15 @@
         <v>690</v>
       </c>
       <c r="B33" s="1">
-        <v>0.87741737025410349</v>
+        <v>0.8819999999999999</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="0"/>
-        <v>8.5629152241810634E-3</v>
+        <v>7.8934240362811946E-3</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1">
         <v>0.59999999999999987</v>
@@ -5094,15 +5108,15 @@
         <v>700</v>
       </c>
       <c r="B34" s="1">
-        <v>0.87278715133511509</v>
+        <v>0.87666666666666648</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="0"/>
-        <v>9.2709367001332331E-3</v>
+        <v>8.675538656527277E-3</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
         <v>0.55000000000000004</v>
@@ -5117,15 +5131,15 @@
         <v>710</v>
       </c>
       <c r="B35" s="1">
-        <v>0.86818136654287703</v>
+        <v>0.87133333333333318</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="0"/>
-        <v>1.0007213236846854E-2</v>
+        <v>9.4998724815098419E-3</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
         <v>0.52000000000000013</v>
@@ -5140,11 +5154,11 @@
         <v>720</v>
       </c>
       <c r="B36" s="1">
-        <v>0.86359988693606704</v>
+        <v>0.86599999999999977</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="0"/>
-        <v>1.0771765446763563E-2</v>
+        <v>1.0367205542725211E-2</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="1"/>
@@ -5163,11 +5177,11 @@
         <v>730</v>
       </c>
       <c r="B37" s="1">
-        <v>0.85904258425379887</v>
+        <v>0.86066666666666647</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="0"/>
-        <v>1.1564614733917089E-2</v>
+        <v>1.127833720630006E-2</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="1"/>
@@ -5186,11 +5200,11 @@
         <v>740</v>
       </c>
       <c r="B38" s="1">
-        <v>0.85450933091203207</v>
+        <v>0.85533333333333306</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="0"/>
-        <v>1.2385783294532385E-2</v>
+        <v>1.2234086775785968E-2</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="1"/>
@@ -5225,6 +5239,20 @@
       <c r="F39">
         <f t="shared" si="2"/>
         <v>0.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <f>SUM(B2:B39)</f>
+        <v>27.169999999999995</v>
+      </c>
+      <c r="D40" s="1">
+        <f>SUM(D2:D39)</f>
+        <v>2.1399999999999997</v>
+      </c>
+      <c r="E40">
+        <f>SUM(E2:E39)</f>
+        <v>17.799999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -5238,7 +5266,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5275,22 +5303,22 @@
         <v>380</v>
       </c>
       <c r="B2">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C2">
         <f xml:space="preserve"> (POWER(1-B2,2) / (2*B2))</f>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D2" s="1">
         <f>ROUND(E2*C2,2)</f>
-        <v>13.82</v>
+        <v>0.49</v>
       </c>
       <c r="E2">
-        <v>1.2</v>
+        <v>0.01</v>
       </c>
       <c r="F2">
         <f>ROUND(E2,2)</f>
-        <v>1.2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5298,29 +5326,29 @@
         <v>390</v>
       </c>
       <c r="B3">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C39" si="0" xml:space="preserve"> (POWER(1-B3,2) / (2*B3))</f>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D39" si="1">ROUND(E3*C3,2)</f>
-        <v>8.06</v>
+        <v>0.49</v>
       </c>
       <c r="E3">
-        <v>0.7</v>
+        <v>0.01</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F39" si="2">ROUND(E3,2)</f>
-        <v>0.7</v>
+        <v>0.01</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
       <c r="I3" t="str">
-        <f>_xlfn.VALUETOTEXT(I1)</f>
-        <v/>
+        <f>_xlfn.VALUETOTEXT(_xlfn.TEXTJOIN(",",TRUE,$D$2:$D$39))</f>
+        <v>0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49,0.49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -5328,29 +5356,29 @@
         <v>400</v>
       </c>
       <c r="B4">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>4.6100000000000003</v>
+        <v>0.49</v>
       </c>
       <c r="E4">
-        <v>0.4</v>
+        <v>0.01</v>
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.01</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
       </c>
       <c r="I4" t="str">
-        <f>_xlfn.VALUETOTEXT(I2)</f>
-        <v/>
+        <f>_xlfn.VALUETOTEXT(_xlfn.TEXTJOIN(",",TRUE,$F$2:$F$39))</f>
+        <v>0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5358,22 +5386,22 @@
         <v>410</v>
       </c>
       <c r="B5">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>4.6100000000000003</v>
+        <v>0.49</v>
       </c>
       <c r="E5">
-        <v>0.4</v>
+        <v>0.01</v>
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -5381,22 +5409,22 @@
         <v>420</v>
       </c>
       <c r="B6">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>4.6100000000000003</v>
+        <v>0.49</v>
       </c>
       <c r="E6">
-        <v>0.39999999999999997</v>
+        <v>0.01</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -5404,22 +5432,22 @@
         <v>430</v>
       </c>
       <c r="B7">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>0.49</v>
       </c>
       <c r="E7">
-        <v>0.41666666666666663</v>
+        <v>0.01</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>0.42</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -5427,22 +5455,22 @@
         <v>440</v>
       </c>
       <c r="B8">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>4.99</v>
+        <v>0.49</v>
       </c>
       <c r="E8">
-        <v>0.43333333333333329</v>
+        <v>0.01</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>0.43</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -5450,22 +5478,22 @@
         <v>450</v>
       </c>
       <c r="B9">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>5.18</v>
+        <v>0.49</v>
       </c>
       <c r="E9">
-        <v>0.44999999999999996</v>
+        <v>0.01</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -5473,22 +5501,22 @@
         <v>460</v>
       </c>
       <c r="B10">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>5.38</v>
+        <v>0.49</v>
       </c>
       <c r="E10">
-        <v>0.46666666666666667</v>
+        <v>0.01</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>0.47</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -5496,22 +5524,22 @@
         <v>470</v>
       </c>
       <c r="B11">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>5.57</v>
+        <v>0.49</v>
       </c>
       <c r="E11">
-        <v>0.48333333333333334</v>
+        <v>0.01</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>0.48</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -5519,22 +5547,22 @@
         <v>480</v>
       </c>
       <c r="B12">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>5.76</v>
+        <v>0.49</v>
       </c>
       <c r="E12">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -5542,22 +5570,22 @@
         <v>490</v>
       </c>
       <c r="B13">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>5.95</v>
+        <v>0.49</v>
       </c>
       <c r="E13">
-        <v>0.51666666666666661</v>
+        <v>0.01</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>0.52</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -5565,22 +5593,22 @@
         <v>500</v>
       </c>
       <c r="B14">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>6.14</v>
+        <v>0.49</v>
       </c>
       <c r="E14">
-        <v>0.53333333333333333</v>
+        <v>0.01</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>0.53</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -5588,22 +5616,22 @@
         <v>510</v>
       </c>
       <c r="B15">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>6.34</v>
+        <v>0.49</v>
       </c>
       <c r="E15">
-        <v>0.55000000000000004</v>
+        <v>0.01</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -5611,22 +5639,22 @@
         <v>520</v>
       </c>
       <c r="B16">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
-        <v>6.53</v>
+        <v>0.49</v>
       </c>
       <c r="E16">
-        <v>0.56666666666666665</v>
+        <v>0.01</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>0.56999999999999995</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5634,22 +5662,22 @@
         <v>530</v>
       </c>
       <c r="B17">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="1"/>
-        <v>6.72</v>
+        <v>0.49</v>
       </c>
       <c r="E17">
-        <v>0.58333333333333337</v>
+        <v>0.01</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>0.57999999999999996</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5657,22 +5685,22 @@
         <v>540</v>
       </c>
       <c r="B18">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="1"/>
-        <v>6.91</v>
+        <v>0.49</v>
       </c>
       <c r="E18">
-        <v>0.6</v>
+        <v>0.01</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>0.6</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5680,22 +5708,22 @@
         <v>550</v>
       </c>
       <c r="B19">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="1"/>
-        <v>7.1</v>
+        <v>0.49</v>
       </c>
       <c r="E19">
-        <v>0.6166666666666667</v>
+        <v>0.01</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>0.62</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5703,22 +5731,22 @@
         <v>560</v>
       </c>
       <c r="B20">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="1"/>
-        <v>7.3</v>
+        <v>0.49</v>
       </c>
       <c r="E20">
-        <v>0.6333333333333333</v>
+        <v>0.01</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>0.63</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -5726,22 +5754,22 @@
         <v>570</v>
       </c>
       <c r="B21">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="1"/>
-        <v>7.49</v>
+        <v>0.49</v>
       </c>
       <c r="E21">
-        <v>0.65</v>
+        <v>0.01</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>0.65</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5749,22 +5777,22 @@
         <v>580</v>
       </c>
       <c r="B22">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="1"/>
-        <v>7.68</v>
+        <v>0.49</v>
       </c>
       <c r="E22">
-        <v>0.66666666666666674</v>
+        <v>0.01</v>
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
-        <v>0.67</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5772,22 +5800,22 @@
         <v>590</v>
       </c>
       <c r="B23">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="1"/>
-        <v>7.87</v>
+        <v>0.49</v>
       </c>
       <c r="E23">
-        <v>0.68333333333333335</v>
+        <v>0.01</v>
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
-        <v>0.68</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5795,22 +5823,22 @@
         <v>600</v>
       </c>
       <c r="B24">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="1"/>
-        <v>8.06</v>
+        <v>0.49</v>
       </c>
       <c r="E24">
-        <v>0.7</v>
+        <v>0.01</v>
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
-        <v>0.7</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5818,22 +5846,22 @@
         <v>610</v>
       </c>
       <c r="B25">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="1"/>
-        <v>8.26</v>
+        <v>0.49</v>
       </c>
       <c r="E25">
-        <v>0.71666666666666667</v>
+        <v>0.01</v>
       </c>
       <c r="F25">
         <f t="shared" si="2"/>
-        <v>0.72</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5841,22 +5869,22 @@
         <v>620</v>
       </c>
       <c r="B26">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="1"/>
-        <v>8.4499999999999993</v>
+        <v>0.49</v>
       </c>
       <c r="E26">
-        <v>0.73333333333333339</v>
+        <v>0.01</v>
       </c>
       <c r="F26">
         <f t="shared" si="2"/>
-        <v>0.73</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5864,22 +5892,22 @@
         <v>630</v>
       </c>
       <c r="B27">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="1"/>
-        <v>8.64</v>
+        <v>0.49</v>
       </c>
       <c r="E27">
-        <v>0.75</v>
+        <v>0.01</v>
       </c>
       <c r="F27">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5887,22 +5915,22 @@
         <v>640</v>
       </c>
       <c r="B28">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="1"/>
-        <v>8.83</v>
+        <v>0.49</v>
       </c>
       <c r="E28">
-        <v>0.76666666666666672</v>
+        <v>0.01</v>
       </c>
       <c r="F28">
         <f t="shared" si="2"/>
-        <v>0.77</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -5910,22 +5938,22 @@
         <v>650</v>
       </c>
       <c r="B29">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="1"/>
-        <v>9.02</v>
+        <v>0.49</v>
       </c>
       <c r="E29">
-        <v>0.78333333333333344</v>
+        <v>0.01</v>
       </c>
       <c r="F29">
         <f t="shared" si="2"/>
-        <v>0.78</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -5933,22 +5961,22 @@
         <v>660</v>
       </c>
       <c r="B30">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="1"/>
-        <v>9.2200000000000006</v>
+        <v>0.49</v>
       </c>
       <c r="E30">
-        <v>0.8</v>
+        <v>0.01</v>
       </c>
       <c r="F30">
         <f t="shared" si="2"/>
-        <v>0.8</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -5956,22 +5984,22 @@
         <v>670</v>
       </c>
       <c r="B31">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="1"/>
-        <v>9.41</v>
+        <v>0.49</v>
       </c>
       <c r="E31">
-        <v>0.81666666666666665</v>
+        <v>0.01</v>
       </c>
       <c r="F31">
         <f t="shared" si="2"/>
-        <v>0.82</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5979,22 +6007,22 @@
         <v>680</v>
       </c>
       <c r="B32">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="1"/>
-        <v>9.6</v>
+        <v>0.49</v>
       </c>
       <c r="E32">
-        <v>0.83333333333333337</v>
+        <v>0.01</v>
       </c>
       <c r="F32">
         <f t="shared" si="2"/>
-        <v>0.83</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -6002,22 +6030,22 @@
         <v>690</v>
       </c>
       <c r="B33">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="1"/>
-        <v>9.7899999999999991</v>
+        <v>0.49</v>
       </c>
       <c r="E33">
-        <v>0.85000000000000009</v>
+        <v>0.01</v>
       </c>
       <c r="F33">
         <f t="shared" si="2"/>
-        <v>0.85</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -6025,22 +6053,22 @@
         <v>700</v>
       </c>
       <c r="B34">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="1"/>
-        <v>9.98</v>
+        <v>0.49</v>
       </c>
       <c r="E34">
-        <v>0.8666666666666667</v>
+        <v>0.01</v>
       </c>
       <c r="F34">
         <f t="shared" si="2"/>
-        <v>0.87</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -6048,22 +6076,22 @@
         <v>710</v>
       </c>
       <c r="B35">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="1"/>
-        <v>10.18</v>
+        <v>0.49</v>
       </c>
       <c r="E35">
-        <v>0.88333333333333341</v>
+        <v>0.01</v>
       </c>
       <c r="F35">
         <f t="shared" si="2"/>
-        <v>0.88</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -6071,22 +6099,22 @@
         <v>720</v>
       </c>
       <c r="B36">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="1"/>
-        <v>10.37</v>
+        <v>0.49</v>
       </c>
       <c r="E36">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="F36">
         <f t="shared" si="2"/>
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -6094,22 +6122,22 @@
         <v>730</v>
       </c>
       <c r="B37">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="1"/>
-        <v>10.56</v>
+        <v>0.49</v>
       </c>
       <c r="E37">
-        <v>0.91666666666666674</v>
+        <v>0.01</v>
       </c>
       <c r="F37">
         <f t="shared" si="2"/>
-        <v>0.92</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -6117,22 +6145,22 @@
         <v>740</v>
       </c>
       <c r="B38">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="1"/>
-        <v>10.75</v>
+        <v>0.49</v>
       </c>
       <c r="E38">
-        <v>0.93333333333333346</v>
+        <v>0.01</v>
       </c>
       <c r="F38">
         <f t="shared" si="2"/>
-        <v>0.93</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -6140,22 +6168,22 @@
         <v>750</v>
       </c>
       <c r="B39">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>11.52</v>
+        <v>49.004999999999995</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="1"/>
-        <v>10.94</v>
+        <v>0.49</v>
       </c>
       <c r="E39">
-        <v>0.95000000000000007</v>
+        <v>0.01</v>
       </c>
       <c r="F39">
         <f t="shared" si="2"/>
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>

--- a/davis-km-project/kubelka-munk-colors.xlsx
+++ b/davis-km-project/kubelka-munk-colors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Documents\GitHub\davis-pigment-mixing\davis-km-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C617AE-52E0-41F2-B2B0-B09017E150C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885A3E60-E8B4-4694-A486-2EB51234AB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{43FEFABB-2B2E-4D8A-9858-0BD2F132905E}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{43FEFABB-2B2E-4D8A-9858-0BD2F132905E}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="6" r:id="rId1"/>
@@ -548,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9043A085-BD9C-4358-8A5B-132B0C686E6B}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1481,7 +1481,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:E40"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1518,22 +1518,22 @@
         <v>380</v>
       </c>
       <c r="B2" s="1">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="C2" s="1">
         <f xml:space="preserve"> (POWER(1-B2,2) / (2*B2))</f>
-        <v>5.29</v>
+        <v>4.05</v>
       </c>
       <c r="D2" s="1">
         <f>ROUND(E2*C2,2)</f>
-        <v>1.06</v>
+        <v>1.62</v>
       </c>
       <c r="E2">
-        <v>0.19999999999999996</v>
+        <v>0.4</v>
       </c>
       <c r="F2">
         <f>ROUND(E2,2)</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1541,29 +1541,29 @@
         <v>390</v>
       </c>
       <c r="B3" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C39" si="0" xml:space="preserve"> (POWER(1-B3,2) / (2*B3))</f>
-        <v>4.05</v>
+        <v>0.81666666666666654</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D39" si="1">ROUND(E3*C3,2)</f>
-        <v>0.9</v>
+        <v>0.33</v>
       </c>
       <c r="E3">
-        <v>0.22162162162162158</v>
+        <v>0.4</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F39" si="2">ROUND(E3,2)</f>
-        <v>0.22</v>
+        <v>0.4</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
       <c r="I3" t="str">
         <f>_xlfn.VALUETOTEXT(_xlfn.TEXTJOIN(",",TRUE,$D$2:$D$39))</f>
-        <v>1.06,0.9,0.39,0.13,0.05,0.01,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01</v>
+        <v>1.62,0.33,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1571,29 +1571,29 @@
         <v>400</v>
       </c>
       <c r="B4" s="1">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>1.6000000000000003</v>
+        <v>5.5555555555555523E-3</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2432432432432432</v>
+        <v>0.4</v>
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
       </c>
       <c r="I4" t="str">
         <f>_xlfn.VALUETOTEXT(_xlfn.TEXTJOIN(",",TRUE,$F$2:$F$39))</f>
-        <v>0.2,0.22,0.24,0.26,0.29,0.31,0.33,0.35,0.37,0.39,0.42,0.44,0.46,0.48,0.5,0.52,0.55,0.57,0.59,0.61,0.63,0.65,0.68,0.7,0.72,0.74,0.76,0.78,0.81,0.83,0.85,0.87,0.89,0.91,0.94,0.96,0.98,1</v>
+        <v>0.4,0.4,0.4,0.4,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1601,22 +1601,22 @@
         <v>410</v>
       </c>
       <c r="B5" s="1">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0.50578947368421057</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.26486486486486482</v>
+        <v>0.4</v>
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1624,22 +1624,22 @@
         <v>420</v>
       </c>
       <c r="B6" s="1">
-        <v>0.56000000000000005</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.17285714285714282</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.28648648648648645</v>
+        <v>0.3</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1647,22 +1647,22 @@
         <v>430</v>
       </c>
       <c r="B7" s="1">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>4.5675675675675681E-2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.30810810810810807</v>
+        <v>0.3</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1670,22 +1670,22 @@
         <v>440</v>
       </c>
       <c r="B8" s="1">
-        <v>0.91999999999999993</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>3.478260869565224E-3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.32972972972972969</v>
+        <v>0.3</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1693,22 +1693,22 @@
         <v>450</v>
       </c>
       <c r="B9" s="1">
-        <v>0.919047619047619</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>3.5652603010116008E-3</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.35135135135135132</v>
+        <v>0.3</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1716,22 +1716,22 @@
         <v>460</v>
       </c>
       <c r="B10" s="1">
-        <v>0.91809523809523796</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>3.6534281762497654E-3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.37297297297297294</v>
+        <v>0.3</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1739,22 +1739,22 @@
         <v>470</v>
       </c>
       <c r="B11" s="1">
-        <v>0.91714285714285704</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>3.7427681352915098E-3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.39459459459459456</v>
+        <v>0.3</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1762,22 +1762,22 @@
         <v>480</v>
       </c>
       <c r="B12" s="1">
-        <v>0.91619047619047611</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>3.8332838332838411E-3</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.41621621621621618</v>
+        <v>0.3</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1785,22 +1785,22 @@
         <v>490</v>
       </c>
       <c r="B13" s="1">
-        <v>0.91523809523809518</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>3.9249789405876867E-3</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.43783783783783781</v>
+        <v>0.3</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>0.44</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1808,22 +1808,22 @@
         <v>500</v>
       </c>
       <c r="B14" s="1">
-        <v>0.91428571428571426</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>4.0178571428571459E-3</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.45945945945945943</v>
+        <v>0.3</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>0.46</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1831,22 +1831,22 @@
         <v>510</v>
       </c>
       <c r="B15" s="1">
-        <v>0.91333333333333322</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>4.1119221411192322E-3</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.48108108108108105</v>
+        <v>0.3</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>0.48</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1854,22 +1854,22 @@
         <v>520</v>
       </c>
       <c r="B16" s="1">
-        <v>0.91238095238095229</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>4.2071776518540693E-3</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.50270270270270268</v>
+        <v>0.3</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1877,22 +1877,22 @@
         <v>530</v>
       </c>
       <c r="B17" s="1">
-        <v>0.91142857142857137</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="0"/>
-        <v>4.3036274070756891E-3</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5243243243243243</v>
+        <v>0.3</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>0.52</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1900,22 +1900,22 @@
         <v>540</v>
       </c>
       <c r="B18" s="1">
-        <v>0.91047619047619044</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
-        <v>4.4012751544132336E-3</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.54594594594594592</v>
+        <v>0.3</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1923,22 +1923,22 @@
         <v>550</v>
       </c>
       <c r="B19" s="1">
-        <v>0.90952380952380951</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="0"/>
-        <v>4.5001246571927216E-3</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.56756756756756754</v>
+        <v>0.3</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>0.56999999999999995</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1946,22 +1946,22 @@
         <v>560</v>
       </c>
       <c r="B20" s="1">
-        <v>0.90857142857142859</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
-        <v>4.6001796945193156E-3</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.58918918918918917</v>
+        <v>0.3</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>0.59</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1969,22 +1969,22 @@
         <v>570</v>
       </c>
       <c r="B21" s="1">
-        <v>0.90761904761904755</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
-        <v>4.7014440613601235E-3</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.61081081081081079</v>
+        <v>0.3</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>0.61</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1992,22 +1992,22 @@
         <v>580</v>
       </c>
       <c r="B22" s="1">
-        <v>0.90666666666666662</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
-        <v>4.8039215686274559E-3</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.63243243243243241</v>
+        <v>0.3</v>
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
-        <v>0.63</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2015,22 +2015,22 @@
         <v>590</v>
       </c>
       <c r="B23" s="1">
-        <v>0.90571428571428569</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>4.9076160432627337E-3</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.65405405405405403</v>
+        <v>0.3</v>
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2038,22 +2038,22 @@
         <v>600</v>
       </c>
       <c r="B24" s="1">
-        <v>0.90476190476190477</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
-        <v>5.0125313283208009E-3</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.67567567567567566</v>
+        <v>0.3</v>
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
-        <v>0.68</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2061,22 +2061,22 @@
         <v>610</v>
       </c>
       <c r="B25" s="1">
-        <v>0.90380952380952384</v>
+        <v>1</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
-        <v>5.1186712830548417E-3</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.69729729729729728</v>
+        <v>0.3</v>
       </c>
       <c r="F25">
         <f t="shared" si="2"/>
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2084,22 +2084,22 @@
         <v>620</v>
       </c>
       <c r="B26" s="1">
-        <v>0.9028571428571428</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
-        <v>5.2260397830018145E-3</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0.7189189189189189</v>
+        <v>0.3</v>
       </c>
       <c r="F26">
         <f t="shared" si="2"/>
-        <v>0.72</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2107,22 +2107,22 @@
         <v>630</v>
       </c>
       <c r="B27" s="1">
-        <v>0.90190476190476188</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="0"/>
-        <v>5.3346407200683893E-3</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.74054054054054053</v>
+        <v>0.3</v>
       </c>
       <c r="F27">
         <f t="shared" si="2"/>
-        <v>0.74</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2130,22 +2130,22 @@
         <v>640</v>
       </c>
       <c r="B28" s="1">
-        <v>0.90095238095238095</v>
+        <v>1</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="0"/>
-        <v>5.4444780026175381E-3</v>
+        <v>0</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0.76216216216216215</v>
+        <v>0.3</v>
       </c>
       <c r="F28">
         <f t="shared" si="2"/>
-        <v>0.76</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2153,22 +2153,22 @@
         <v>650</v>
       </c>
       <c r="B29" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="0"/>
-        <v>5.5555555555555523E-3</v>
+        <v>0</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0.78378378378378377</v>
+        <v>0.3</v>
       </c>
       <c r="F29">
         <f t="shared" si="2"/>
-        <v>0.78</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2176,22 +2176,22 @@
         <v>660</v>
       </c>
       <c r="B30" s="1">
-        <v>0.89400000000000002</v>
+        <v>1</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="0"/>
-        <v>6.2841163310961949E-3</v>
+        <v>0</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0.80540540540540539</v>
+        <v>0.3</v>
       </c>
       <c r="F30">
         <f t="shared" si="2"/>
-        <v>0.81</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2199,22 +2199,22 @@
         <v>670</v>
       </c>
       <c r="B31" s="1">
-        <v>0.88800000000000001</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="0"/>
-        <v>7.0630630630630614E-3</v>
+        <v>0</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0.82702702702702702</v>
+        <v>0.3</v>
       </c>
       <c r="F31">
         <f t="shared" si="2"/>
-        <v>0.83</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2222,22 +2222,22 @@
         <v>680</v>
       </c>
       <c r="B32" s="1">
-        <v>0.88200000000000001</v>
+        <v>1</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="0"/>
-        <v>7.893424036281179E-3</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0.84864864864864864</v>
+        <v>0.3</v>
       </c>
       <c r="F32">
         <f t="shared" si="2"/>
-        <v>0.85</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2245,22 +2245,22 @@
         <v>690</v>
       </c>
       <c r="B33" s="1">
-        <v>0.876</v>
+        <v>1</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="0"/>
-        <v>8.7762557077625571E-3</v>
+        <v>0</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0.87027027027027026</v>
+        <v>0.3</v>
       </c>
       <c r="F33">
         <f t="shared" si="2"/>
-        <v>0.87</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2268,22 +2268,22 @@
         <v>700</v>
       </c>
       <c r="B34" s="1">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="0"/>
-        <v>9.7126436781609215E-3</v>
+        <v>0</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0.89189189189189189</v>
+        <v>0.3</v>
       </c>
       <c r="F34">
         <f t="shared" si="2"/>
-        <v>0.89</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2291,22 +2291,22 @@
         <v>710</v>
       </c>
       <c r="B35" s="1">
-        <v>0.86599999999999999</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="0"/>
-        <v>1.0367205542725175E-2</v>
+        <v>0</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0.91351351351351351</v>
+        <v>0.3</v>
       </c>
       <c r="F35">
         <f t="shared" si="2"/>
-        <v>0.91</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2314,22 +2314,22 @@
         <v>720</v>
       </c>
       <c r="B36" s="1">
-        <v>0.86199999999999999</v>
+        <v>1</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="0"/>
-        <v>1.1046403712296985E-2</v>
+        <v>0</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>0.93513513513513513</v>
+        <v>0.3</v>
       </c>
       <c r="F36">
         <f t="shared" si="2"/>
-        <v>0.94</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2337,22 +2337,22 @@
         <v>730</v>
       </c>
       <c r="B37" s="1">
-        <v>0.85799999999999998</v>
+        <v>1</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="0"/>
-        <v>1.1750582750582753E-2</v>
+        <v>0</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>0.95675675675675675</v>
+        <v>0.3</v>
       </c>
       <c r="F37">
         <f t="shared" si="2"/>
-        <v>0.96</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2360,22 +2360,22 @@
         <v>740</v>
       </c>
       <c r="B38" s="1">
-        <v>0.85399999999999998</v>
+        <v>1</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="0"/>
-        <v>1.2480093676814992E-2</v>
+        <v>0</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>0.97837837837837838</v>
+        <v>0.3</v>
       </c>
       <c r="F38">
         <f t="shared" si="2"/>
-        <v>0.98</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2383,36 +2383,36 @@
         <v>750</v>
       </c>
       <c r="B39" s="1">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="0"/>
-        <v>1.3235294117647062E-2</v>
+        <v>0</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="F39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <f>SUM(B2:B39)</f>
-        <v>30.78</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="D40" s="1">
         <f>SUM(D2:D39)</f>
-        <v>2.6399999999999975</v>
+        <v>1.9500000000000002</v>
       </c>
       <c r="E40">
         <f>SUM(E2:E39)</f>
-        <v>22.799999999999997</v>
+        <v>11.800000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -2425,8 +2425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986E6D16-BB58-490F-82E5-028966418FB3}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:E40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2464,22 +2464,22 @@
         <v>380</v>
       </c>
       <c r="B2" s="1">
-        <v>0.20000000000000004</v>
+        <v>0.23</v>
       </c>
       <c r="C2" s="1">
         <f xml:space="preserve"> (POWER(1-B2,2) / (2*B2))</f>
-        <v>1.5999999999999994</v>
+        <v>1.2889130434782607</v>
       </c>
       <c r="D2" s="1">
         <f>ROUND(E2*C2,2)</f>
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="E2" s="1">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="F2">
         <f>ROUND(E2,2)</f>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="I3" t="str">
         <f>_xlfn.VALUETOTEXT(_xlfn.TEXTJOIN(",",TRUE,$D$2:$D$39))</f>
-        <v>0.32,0.13,0,0,0,0,0,0,0,0,0,0,0,0.11,0.32,0.73,1.77,2.71,2.89,3.07,3.25,3.43,3.61,3.61,3.61,3.61,3.61,2.93,0.64,0.21,0.07,0,0,0,0,0,0,0</v>
+        <v>0.27,0.13,0,0,0,0,0,0,0,0,0,0,0,0.11,0.32,0.73,1.77,2.71,2.89,3.07,3.25,3.43,3.61,3.61,3.61,3.61,3.61,2.93,0.64,0.21,0.07,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="I4" t="str">
         <f>_xlfn.VALUETOTEXT(_xlfn.TEXTJOIN(",",TRUE,$F$2:$F$39))</f>
-        <v>0.2,0.1,0,0,0,0,0,0,0,0,0,0,0,0.06,0.12,0.18,0.24,0.3,0.32,0.34,0.36,0.38,0.4,0.4,0.4,0.4,0.4,0.33,0.25,0.18,0.1,0,0,0,0,0,0,0</v>
+        <v>0.21,0.1,0,0,0,0,0,0,0,0,0,0,0,0.06,0.12,0.18,0.24,0.3,0.32,0.34,0.36,0.38,0.4,0.4,0.4,0.4,0.4,0.33,0.25,0.18,0.1,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3350,15 +3350,15 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <f>SUM(B2:B39)</f>
-        <v>9.5499999999999954</v>
+        <v>9.5799999999999965</v>
       </c>
       <c r="D40" s="1">
         <f>SUM(D2:D39)</f>
-        <v>40.630000000000003</v>
+        <v>40.58</v>
       </c>
       <c r="E40">
         <f>SUM(E2:E39)</f>
-        <v>5.4499999999999993</v>
+        <v>5.4599999999999991</v>
       </c>
     </row>
   </sheetData>
@@ -3372,7 +3372,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3417,14 +3417,14 @@
       </c>
       <c r="D2" s="1">
         <f>ROUND(E2*C2,2)</f>
-        <v>1.25</v>
+        <v>1.72</v>
       </c>
       <c r="E2" s="1">
-        <v>0.08</v>
+        <v>0.11000000000000001</v>
       </c>
       <c r="F2">
         <f>ROUND(E2,2)</f>
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3440,21 +3440,21 @@
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D39" si="1">ROUND(E3*C3,2)</f>
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="E3" s="1">
-        <v>7.4583333333333335E-2</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F39" si="2">ROUND(E3,2)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
       <c r="I3" t="str">
         <f>_xlfn.VALUETOTEXT(_xlfn.TEXTJOIN(",",TRUE,$D$2:$D$39))</f>
-        <v>1.25,1.42,1.32,1,1.11,0.48,0.27,0.13,0.07,0.03,0.08,0.12,0.36,0.92,2.4,1.68,1.2,0.52,0.33,0.16,0.6,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
+        <v>1.72,1.43,0.76,1.44,2.74,1.77,1.41,0.97,0.66,0.4,0.92,1.26,1.62,2.15,4.64,4.8,4.96,3.35,1.99,0.74,2.28,0.01,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3470,21 +3470,21 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>1.32</v>
+        <v>0.76</v>
       </c>
       <c r="E4" s="1">
-        <v>6.9166666666666668E-2</v>
+        <v>4.0000000000000049E-2</v>
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
       </c>
       <c r="I4" t="str">
         <f>_xlfn.VALUETOTEXT(_xlfn.TEXTJOIN(",",TRUE,$F$2:$F$39))</f>
-        <v>0.08,0.07,0.07,0.06,0.06,0.05,0.05,0.04,0.03,0.02,0.02,0.02,0.04,0.08,0.1,0.07,0.05,0.03,0.04,0.04,0.04,0.04,0.04,0.03,0.03,0.03,0.03,0.03,0.03,0.02,0.02,0.02,0.02,0.02,0.02,0.01,0.01,0.01</v>
+        <v>0.11,0.08,0.04,0.09,0.14,0.2,0.25,0.3,0.28,0.25,0.23,0.2,0.18,0.19,0.19,0.2,0.21,0.21,0.22,0.18,0.15,0.11,0.07,0.03,0.03,0.03,0.03,0.03,0.03,0.02,0.02,0.02,0.02,0.02,0.02,0.01,0.01,0.01</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3500,14 +3500,14 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="E5" s="1">
-        <v>6.3750000000000001E-2</v>
+        <v>9.2000000000000026E-2</v>
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3523,14 +3523,14 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>1.1100000000000001</v>
+        <v>2.74</v>
       </c>
       <c r="E6" s="1">
-        <v>5.8333333333333334E-2</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>0.06</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3546,14 +3546,14 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>0.48</v>
+        <v>1.77</v>
       </c>
       <c r="E7" s="1">
-        <v>5.291666666666666E-2</v>
+        <v>0.19599999999999998</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3569,14 +3569,14 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>0.27</v>
+        <v>1.41</v>
       </c>
       <c r="E8" s="1">
-        <v>4.7499999999999994E-2</v>
+        <v>0.24799999999999997</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3592,14 +3592,14 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>0.13</v>
+        <v>0.97</v>
       </c>
       <c r="E9" s="1">
-        <v>3.8749999999999993E-2</v>
+        <v>0.29999999999999993</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>0.04</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3615,14 +3615,14 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.66</v>
       </c>
       <c r="E10" s="1">
-        <v>2.9999999999999985E-2</v>
+        <v>0.27599999999999997</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>0.03</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3638,14 +3638,14 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>0.03</v>
+        <v>0.4</v>
       </c>
       <c r="E11" s="1">
-        <v>0.02</v>
+        <v>0.25199999999999995</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3661,14 +3661,14 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>0.08</v>
+        <v>0.92</v>
       </c>
       <c r="E12" s="1">
-        <v>0.02</v>
+        <v>0.22799999999999998</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3684,14 +3684,14 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>0.12</v>
+        <v>1.26</v>
       </c>
       <c r="E13" s="1">
-        <v>0.02</v>
+        <v>0.20399999999999996</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3707,14 +3707,14 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>0.36</v>
+        <v>1.62</v>
       </c>
       <c r="E14" s="1">
-        <v>0.04</v>
+        <v>0.17999999999999997</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3730,14 +3730,14 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>0.92</v>
+        <v>2.15</v>
       </c>
       <c r="E15" s="1">
-        <v>0.08</v>
+        <v>0.18666666666666665</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3753,14 +3753,14 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
-        <v>2.4</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="E16" s="1">
-        <v>0.1</v>
+        <v>0.19333333333333333</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3776,14 +3776,14 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="1"/>
-        <v>1.68</v>
+        <v>4.8</v>
       </c>
       <c r="E17" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.2</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3799,14 +3799,14 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="1"/>
-        <v>1.2</v>
+        <v>4.96</v>
       </c>
       <c r="E18" s="1">
-        <v>0.05</v>
+        <v>0.20666666666666667</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3822,14 +3822,14 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="1"/>
-        <v>0.52</v>
+        <v>3.35</v>
       </c>
       <c r="E19" s="1">
-        <v>3.3000000000000002E-2</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>0.03</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3845,14 +3845,14 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="1"/>
-        <v>0.33</v>
+        <v>1.99</v>
       </c>
       <c r="E20" s="1">
-        <v>3.6500000000000005E-2</v>
+        <v>0.22000000000000003</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>0.04</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3868,14 +3868,14 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="1"/>
-        <v>0.16</v>
+        <v>0.74</v>
       </c>
       <c r="E21" s="1">
-        <v>4.0000000000000008E-2</v>
+        <v>0.1826666666666667</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3891,14 +3891,14 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>3.8333333333333337E-2</v>
+        <v>0.14533333333333334</v>
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3914,14 +3914,14 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E23" s="1">
-        <v>3.6666666666666674E-2</v>
+        <v>0.10800000000000001</v>
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3940,11 +3940,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>7.0666666666666683E-2</v>
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>3.333333333333334E-2</v>
+        <v>3.3333333333333326E-2</v>
       </c>
       <c r="F25">
         <f t="shared" si="2"/>
@@ -4299,11 +4299,11 @@
       </c>
       <c r="D40" s="1">
         <f>SUM(D2:D39)</f>
-        <v>15.45</v>
+        <v>42.02</v>
       </c>
       <c r="E40">
         <f>SUM(E2:E39)</f>
-        <v>1.4595</v>
+        <v>4.3966666666666665</v>
       </c>
     </row>
   </sheetData>

--- a/davis-km-project/kubelka-munk-colors.xlsx
+++ b/davis-km-project/kubelka-munk-colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Documents\GitHub\davis-pigment-mixing\davis-km-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885A3E60-E8B4-4694-A486-2EB51234AB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039203EE-685F-46C3-91C3-D20E75777481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{43FEFABB-2B2E-4D8A-9858-0BD2F132905E}"/>
   </bookViews>
@@ -2426,7 +2426,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2464,22 +2464,22 @@
         <v>380</v>
       </c>
       <c r="B2" s="1">
-        <v>0.23</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="C2" s="1">
         <f xml:space="preserve"> (POWER(1-B2,2) / (2*B2))</f>
-        <v>1.2889130434782607</v>
+        <v>1.5999999999999994</v>
       </c>
       <c r="D2" s="1">
         <f>ROUND(E2*C2,2)</f>
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="E2" s="1">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="F2">
         <f>ROUND(E2,2)</f>
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2495,21 +2495,21 @@
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D39" si="1">ROUND(E3*C3,2)</f>
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="1">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F39" si="2">ROUND(E3,2)</f>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
       <c r="I3" t="str">
         <f>_xlfn.VALUETOTEXT(_xlfn.TEXTJOIN(",",TRUE,$D$2:$D$39))</f>
-        <v>0.27,0.13,0,0,0,0,0,0,0,0,0,0,0,0.11,0.32,0.73,1.77,2.71,2.89,3.07,3.25,3.43,3.61,3.61,3.61,3.61,3.61,2.93,0.64,0.21,0.07,0,0,0,0,0,0,0</v>
+        <v>0.32,0.19,0.1,0.04,0.03,0.01,0.01,0,0,0,0,0,0,0.09,0.26,0.61,1.47,2.26,1.81,2.14,2.48,2.82,3.16,3.61,3.61,3.61,3.61,2.93,0.64,0.21,0.07,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2525,21 +2525,21 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
       </c>
       <c r="I4" t="str">
         <f>_xlfn.VALUETOTEXT(_xlfn.TEXTJOIN(",",TRUE,$F$2:$F$39))</f>
-        <v>0.21,0.1,0,0,0,0,0,0,0,0,0,0,0,0.06,0.12,0.18,0.24,0.3,0.32,0.34,0.36,0.38,0.4,0.4,0.4,0.4,0.4,0.33,0.25,0.18,0.1,0,0,0,0,0,0,0</v>
+        <v>0.2,0.15,0.1,0.05,0.05,0.02,0.01,0,0,0,0,0,0,0.05,0.1,0.15,0.2,0.25,0.2,0.24,0.28,0.31,0.35,0.4,0.4,0.4,0.4,0.33,0.25,0.18,0.1,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2555,14 +2555,14 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2578,14 +2578,14 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2601,14 +2601,14 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2624,14 +2624,14 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2785,14 +2785,14 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E15" s="1">
-        <v>6.0000000000000026E-2</v>
+        <v>4.999999999999994E-2</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2808,14 +2808,14 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="E16" s="1">
-        <v>0.12</v>
+        <v>9.9999999999999964E-2</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2831,14 +2831,14 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="1"/>
-        <v>0.73</v>
+        <v>0.61</v>
       </c>
       <c r="E17" s="1">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2854,14 +2854,14 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="1"/>
-        <v>1.77</v>
+        <v>1.47</v>
       </c>
       <c r="E18" s="1">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2877,14 +2877,14 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="1"/>
-        <v>2.71</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="E19" s="1">
-        <v>0.29999999999999993</v>
+        <v>0.25</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2900,14 +2900,14 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="1"/>
-        <v>2.89</v>
+        <v>1.81</v>
       </c>
       <c r="E20" s="1">
-        <v>0.31999999999999995</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2923,14 +2923,14 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="1"/>
-        <v>3.07</v>
+        <v>2.14</v>
       </c>
       <c r="E21" s="1">
-        <v>0.33999999999999997</v>
+        <v>0.23750000000000004</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2946,14 +2946,14 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="1"/>
-        <v>3.25</v>
+        <v>2.48</v>
       </c>
       <c r="E22" s="1">
-        <v>0.36</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
-        <v>0.36</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2969,14 +2969,14 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="1"/>
-        <v>3.43</v>
+        <v>2.82</v>
       </c>
       <c r="E23" s="1">
-        <v>0.38</v>
+        <v>0.3125</v>
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2992,14 +2992,14 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="1"/>
-        <v>3.61</v>
+        <v>3.16</v>
       </c>
       <c r="E24" s="1">
-        <v>0.4</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3350,15 +3350,15 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <f>SUM(B2:B39)</f>
-        <v>9.5799999999999965</v>
+        <v>9.5499999999999954</v>
       </c>
       <c r="D40" s="1">
         <f>SUM(D2:D39)</f>
-        <v>40.58</v>
+        <v>36.090000000000003</v>
       </c>
       <c r="E40">
         <f>SUM(E2:E39)</f>
-        <v>5.4599999999999991</v>
+        <v>5.1549999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="I3" t="str">
         <f>_xlfn.VALUETOTEXT(_xlfn.TEXTJOIN(",",TRUE,$D$2:$D$39))</f>
-        <v>1.72,1.43,0.76,1.44,2.74,1.77,1.41,0.97,0.66,0.4,0.92,1.26,1.62,2.15,4.64,4.8,4.96,3.35,1.99,0.74,2.28,0.01,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
+        <v>1.72,1.43,0.76,1,1.11,0.48,0.27,0.13,0.07,0.03,0.08,0.12,0.36,0.92,2.4,1.68,1.2,0.52,0.33,0.16,0.6,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3473,7 +3473,7 @@
         <v>0.76</v>
       </c>
       <c r="E4" s="1">
-        <v>4.0000000000000049E-2</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="I4" t="str">
         <f>_xlfn.VALUETOTEXT(_xlfn.TEXTJOIN(",",TRUE,$F$2:$F$39))</f>
-        <v>0.11,0.08,0.04,0.09,0.14,0.2,0.25,0.3,0.28,0.25,0.23,0.2,0.18,0.19,0.19,0.2,0.21,0.21,0.22,0.18,0.15,0.11,0.07,0.03,0.03,0.03,0.03,0.03,0.03,0.02,0.02,0.02,0.02,0.02,0.02,0.01,0.01,0.01</v>
+        <v>0.11,0.08,0.04,0.06,0.06,0.05,0.05,0.04,0.03,0.02,0.02,0.02,0.04,0.08,0.1,0.07,0.05,0.03,0.04,0.04,0.04,0.04,0.04,0.03,0.03,0.03,0.03,0.03,0.03,0.02,0.02,0.02,0.02,0.02,0.02,0.01,0.01,0.01</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3500,14 +3500,14 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>1.44</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>9.2000000000000026E-2</v>
+        <v>6.3750000000000001E-2</v>
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3523,14 +3523,14 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>2.74</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.14399999999999999</v>
+        <v>5.8333333333333334E-2</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>0.14000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3546,14 +3546,14 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>1.77</v>
+        <v>0.48</v>
       </c>
       <c r="E7" s="1">
-        <v>0.19599999999999998</v>
+        <v>5.291666666666666E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3569,14 +3569,14 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>1.41</v>
+        <v>0.27</v>
       </c>
       <c r="E8" s="1">
-        <v>0.24799999999999997</v>
+        <v>4.7499999999999994E-2</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3592,14 +3592,14 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>0.97</v>
+        <v>0.13</v>
       </c>
       <c r="E9" s="1">
-        <v>0.29999999999999993</v>
+        <v>3.8749999999999993E-2</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3615,14 +3615,14 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>0.66</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E10" s="1">
-        <v>0.27599999999999997</v>
+        <v>2.9999999999999985E-2</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>0.28000000000000003</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3638,14 +3638,14 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.03</v>
       </c>
       <c r="E11" s="1">
-        <v>0.25199999999999995</v>
+        <v>0.02</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3661,14 +3661,14 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>0.92</v>
+        <v>0.08</v>
       </c>
       <c r="E12" s="1">
-        <v>0.22799999999999998</v>
+        <v>0.02</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3684,14 +3684,14 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>1.26</v>
+        <v>0.12</v>
       </c>
       <c r="E13" s="1">
-        <v>0.20399999999999996</v>
+        <v>0.02</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3707,14 +3707,14 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>1.62</v>
+        <v>0.36</v>
       </c>
       <c r="E14" s="1">
-        <v>0.17999999999999997</v>
+        <v>0.04</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>0.18</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3730,14 +3730,14 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>2.15</v>
+        <v>0.92</v>
       </c>
       <c r="E15" s="1">
-        <v>0.18666666666666665</v>
+        <v>0.08</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3753,14 +3753,14 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
-        <v>4.6399999999999997</v>
+        <v>2.4</v>
       </c>
       <c r="E16" s="1">
-        <v>0.19333333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3776,14 +3776,14 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>1.68</v>
       </c>
       <c r="E17" s="1">
-        <v>0.2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3799,14 +3799,14 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="1"/>
-        <v>4.96</v>
+        <v>1.2</v>
       </c>
       <c r="E18" s="1">
-        <v>0.20666666666666667</v>
+        <v>0.05</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3822,14 +3822,14 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="1"/>
-        <v>3.35</v>
+        <v>0.52</v>
       </c>
       <c r="E19" s="1">
-        <v>0.21333333333333335</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3845,14 +3845,14 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="1"/>
-        <v>1.99</v>
+        <v>0.33</v>
       </c>
       <c r="E20" s="1">
-        <v>0.22000000000000003</v>
+        <v>3.6500000000000005E-2</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>0.22</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3868,14 +3868,14 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="1"/>
-        <v>0.74</v>
+        <v>0.16</v>
       </c>
       <c r="E21" s="1">
-        <v>0.1826666666666667</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>0.18</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3891,14 +3891,14 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="1"/>
-        <v>2.2799999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="E22" s="1">
-        <v>0.14533333333333334</v>
+        <v>3.8333333333333337E-2</v>
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3914,14 +3914,14 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>0.10800000000000001</v>
+        <v>3.6666666666666674E-2</v>
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3940,11 +3940,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>7.0666666666666683E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>3.3333333333333326E-2</v>
+        <v>3.333333333333334E-2</v>
       </c>
       <c r="F25">
         <f t="shared" si="2"/>
@@ -4299,11 +4299,11 @@
       </c>
       <c r="D40" s="1">
         <f>SUM(D2:D39)</f>
-        <v>42.02</v>
+        <v>15.37</v>
       </c>
       <c r="E40">
         <f>SUM(E2:E39)</f>
-        <v>4.3966666666666665</v>
+        <v>1.4607500000000002</v>
       </c>
     </row>
   </sheetData>

--- a/davis-km-project/kubelka-munk-colors.xlsx
+++ b/davis-km-project/kubelka-munk-colors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Documents\GitHub\davis-pigment-mixing\davis-km-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039203EE-685F-46C3-91C3-D20E75777481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA31C485-9228-42E5-BC90-E3D1BE236F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{43FEFABB-2B2E-4D8A-9858-0BD2F132905E}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="4" xr2:uid="{43FEFABB-2B2E-4D8A-9858-0BD2F132905E}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="6" r:id="rId1"/>
@@ -195,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -205,6 +205,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1481,7 +1483,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,6 +1493,7 @@
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1526,14 +1529,14 @@
       </c>
       <c r="D2" s="1">
         <f>ROUND(E2*C2,2)</f>
-        <v>1.62</v>
+        <v>8.1</v>
       </c>
       <c r="E2">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <f>ROUND(E2,2)</f>
-        <v>0.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1549,21 +1552,21 @@
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D39" si="1">ROUND(E3*C3,2)</f>
-        <v>0.33</v>
+        <v>1.63</v>
       </c>
       <c r="E3">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F39" si="2">ROUND(E3,2)</f>
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
       <c r="I3" t="str">
         <f>_xlfn.VALUETOTEXT(_xlfn.TEXTJOIN(",",TRUE,$D$2:$D$39))</f>
-        <v>1.62,0.33,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
+        <v>8.1,1.63,0.01,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1579,21 +1582,21 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E4">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
       </c>
       <c r="I4" t="str">
         <f>_xlfn.VALUETOTEXT(_xlfn.TEXTJOIN(",",TRUE,$F$2:$F$39))</f>
-        <v>0.4,0.4,0.4,0.4,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3,0.3</v>
+        <v>2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1612,11 +1615,11 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1635,11 +1638,11 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1658,11 +1661,11 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1681,11 +1684,11 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1704,11 +1707,11 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1727,11 +1730,11 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1750,11 +1753,11 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1773,11 +1776,11 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1796,11 +1799,11 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1819,11 +1822,11 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1842,11 +1845,11 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1865,11 +1868,11 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1888,11 +1891,11 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1911,11 +1914,11 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1934,11 +1937,11 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1957,11 +1960,11 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1980,11 +1983,11 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2003,11 +2006,11 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2026,11 +2029,11 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2049,11 +2052,11 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2072,11 +2075,11 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2095,11 +2098,11 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2118,11 +2121,11 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2141,11 +2144,11 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2164,11 +2167,11 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2187,11 +2190,11 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2210,11 +2213,11 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2233,14 +2236,14 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>690</v>
       </c>
@@ -2256,14 +2259,14 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>700</v>
       </c>
@@ -2279,14 +2282,14 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>710</v>
       </c>
@@ -2302,14 +2305,14 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>720</v>
       </c>
@@ -2325,14 +2328,15 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>730</v>
       </c>
@@ -2348,14 +2352,14 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>740</v>
       </c>
@@ -2371,14 +2375,14 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F38">
         <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>750</v>
       </c>
@@ -2394,25 +2398,25 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F39">
         <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <f>SUM(B2:B39)</f>
         <v>36.299999999999997</v>
       </c>
       <c r="D40" s="1">
         <f>SUM(D2:D39)</f>
-        <v>1.9500000000000002</v>
+        <v>9.74</v>
       </c>
       <c r="E40">
         <f>SUM(E2:E39)</f>
-        <v>11.800000000000006</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2425,7 +2429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986E6D16-BB58-490F-82E5-028966418FB3}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -2435,7 +2439,7 @@
     <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2472,14 +2476,14 @@
       </c>
       <c r="D2" s="1">
         <f>ROUND(E2*C2,2)</f>
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="E2" s="1">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F2">
         <f>ROUND(E2,2)</f>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2487,29 +2491,29 @@
         <v>390</v>
       </c>
       <c r="B3" s="1">
-        <v>0.23400000000000004</v>
+        <v>0.35</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C39" si="0" xml:space="preserve"> (POWER(1-B3,2) / (2*B3))</f>
-        <v>1.2537521367521367</v>
+        <v>0.60357142857142865</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D39" si="1">ROUND(E3*C3,2)</f>
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="E3" s="1">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F39" si="2">ROUND(E3,2)</f>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
       <c r="I3" t="str">
         <f>_xlfn.VALUETOTEXT(_xlfn.TEXTJOIN(",",TRUE,$D$2:$D$39))</f>
-        <v>0.32,0.19,0.1,0.04,0.03,0.01,0.01,0,0,0,0,0,0,0.09,0.26,0.61,1.47,2.26,1.81,2.14,2.48,2.82,3.16,3.61,3.61,3.61,3.61,2.93,0.64,0.21,0.07,0,0,0,0,0,0,0</v>
+        <v>0.24,0.06,0.04,0.04,0.03,0.02,0.01,0.01,0,0,0,0,0,0.02,0.01,0.03,0.08,0.09,0.1,0.11,0.13,0.15,0.15,0.15,0.14,0.14,0.13,0.13,0.13,0.14,0.15,0.15,0.16,0.17,0.18,0.2,0.22,0.24</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2517,29 +2521,29 @@
         <v>400</v>
       </c>
       <c r="B4" s="1">
-        <v>0.26800000000000002</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>0.99967164179104462</v>
+        <v>0.40833333333333321</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="E4" s="1">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
       </c>
       <c r="I4" t="str">
         <f>_xlfn.VALUETOTEXT(_xlfn.TEXTJOIN(",",TRUE,$F$2:$F$39))</f>
-        <v>0.2,0.15,0.1,0.05,0.05,0.02,0.01,0,0,0,0,0,0,0.05,0.1,0.15,0.2,0.25,0.2,0.24,0.28,0.31,0.35,0.4,0.4,0.4,0.4,0.33,0.25,0.18,0.1,0,0,0,0,0,0,0</v>
+        <v>0.15,0.1,0.11,0.13,0.14,0.15,0.16,0.16,0.17,0.18,0.15,0.01,0.08,0.04,0.02,0.02,0.02,0.02,0.02,0.02,0.02,0.02,0.02,0.02,0.02,0.02,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01,0.01</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2547,22 +2551,22 @@
         <v>410</v>
       </c>
       <c r="B5" s="1">
-        <v>0.30200000000000005</v>
+        <v>0.48333333333333339</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0.80662913907284739</v>
+        <v>0.2761494252873562</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
       <c r="E5" s="1">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2570,22 +2574,22 @@
         <v>420</v>
       </c>
       <c r="B6" s="1">
-        <v>0.33600000000000002</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.65609523809523795</v>
+        <v>0.18409090909090903</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
       <c r="E6" s="1">
-        <v>0.05</v>
+        <v>0.13833333333333334</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2593,22 +2597,22 @@
         <v>430</v>
       </c>
       <c r="B7" s="1">
-        <v>0.37</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.53635135135135137</v>
+        <v>0.11914414414414413</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E7" s="1">
-        <v>0.02</v>
+        <v>0.14666666666666667</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2616,22 +2620,22 @@
         <v>440</v>
       </c>
       <c r="B8" s="1">
-        <v>0.36</v>
+        <v>0.68333333333333346</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.56888888888888889</v>
+        <v>7.3373983739837334E-2</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01</v>
+        <v>0.155</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2639,22 +2643,22 @@
         <v>450</v>
       </c>
       <c r="B9" s="1">
-        <v>0.35</v>
+        <v>0.75000000000000011</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>0.60357142857142865</v>
+        <v>4.1666666666666623E-2</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>0.16333333333333333</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2662,22 +2666,22 @@
         <v>460</v>
       </c>
       <c r="B10" s="1">
-        <v>0.32399999999999995</v>
+        <v>0.81666666666666687</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.7052098765432101</v>
+        <v>2.0578231292516954E-2</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>0.17166666666666666</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2685,22 +2689,22 @@
         <v>470</v>
       </c>
       <c r="B11" s="1">
-        <v>0.29799999999999999</v>
+        <v>0.88333333333333353</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0.82685234899328852</v>
+        <v>7.7044025157232436E-3</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2708,22 +2712,22 @@
         <v>480</v>
       </c>
       <c r="B12" s="1">
-        <v>0.27199999999999996</v>
+        <v>0.95000000000000018</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>0.9742352941176472</v>
+        <v>1.315789473684201E-3</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2731,22 +2735,22 @@
         <v>490</v>
       </c>
       <c r="B13" s="1">
-        <v>0.246</v>
+        <v>0.85</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>1.155520325203252</v>
+        <v>1.3235294117647062E-2</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2754,22 +2758,22 @@
         <v>500</v>
       </c>
       <c r="B14" s="1">
-        <v>0.22</v>
+        <v>0.75</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>1.3827272727272728</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>4.163336342344337E-17</v>
+        <v>0.08</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2777,22 +2781,22 @@
         <v>510</v>
       </c>
       <c r="B15" s="1">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>1.8677777777777782</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="E15" s="1">
-        <v>4.999999999999994E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2800,22 +2804,22 @@
         <v>520</v>
       </c>
       <c r="B16" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>2.641428571428571</v>
+        <v>0.60357142857142865</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
-        <v>0.26</v>
+        <v>0.01</v>
       </c>
       <c r="E16" s="1">
-        <v>9.9999999999999964E-2</v>
+        <v>0.02</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2823,22 +2827,22 @@
         <v>530</v>
       </c>
       <c r="B17" s="1">
-        <v>0.1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="0"/>
-        <v>4.05</v>
+        <v>1.6000000000000008</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="1"/>
-        <v>0.61</v>
+        <v>0.03</v>
       </c>
       <c r="E17" s="1">
-        <v>0.15</v>
+        <v>1.9565217391304349E-2</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2846,22 +2850,22 @@
         <v>540</v>
       </c>
       <c r="B18" s="1">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
-        <v>7.3633333333333333</v>
+        <v>4.05</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="1"/>
-        <v>1.47</v>
+        <v>0.08</v>
       </c>
       <c r="E18" s="1">
-        <v>0.2</v>
+        <v>1.9130434782608695E-2</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2869,22 +2873,22 @@
         <v>550</v>
       </c>
       <c r="B19" s="1">
-        <v>0.05</v>
+        <v>9.0000000000000011E-2</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="0"/>
-        <v>9.0249999999999986</v>
+        <v>4.6005555555555553</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="1"/>
-        <v>2.2599999999999998</v>
+        <v>0.09</v>
       </c>
       <c r="E19" s="1">
-        <v>0.25</v>
+        <v>1.8695652173913044E-2</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2892,22 +2896,22 @@
         <v>560</v>
       </c>
       <c r="B20" s="1">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
-        <v>9.0249999999999986</v>
+        <v>5.29</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="1"/>
-        <v>1.81</v>
+        <v>0.1</v>
       </c>
       <c r="E20" s="1">
-        <v>0.20000000000000004</v>
+        <v>1.8260869565217393E-2</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2915,22 +2919,22 @@
         <v>570</v>
       </c>
       <c r="B21" s="1">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
-        <v>9.0249999999999986</v>
+        <v>6.1778571428571416</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="1"/>
-        <v>2.14</v>
+        <v>0.11</v>
       </c>
       <c r="E21" s="1">
-        <v>0.23750000000000004</v>
+        <v>1.7826086956521742E-2</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2938,22 +2942,22 @@
         <v>580</v>
       </c>
       <c r="B22" s="1">
-        <v>0.05</v>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
-        <v>9.0249999999999986</v>
+        <v>7.3633333333333324</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="1"/>
-        <v>2.48</v>
+        <v>0.13</v>
       </c>
       <c r="E22" s="1">
-        <v>0.27500000000000002</v>
+        <v>1.7391304347826087E-2</v>
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
-        <v>0.28000000000000003</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2969,14 +2973,14 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="1"/>
-        <v>2.82</v>
+        <v>0.15</v>
       </c>
       <c r="E23" s="1">
-        <v>0.3125</v>
+        <v>1.6956521739130436E-2</v>
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
-        <v>0.31</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2992,14 +2996,14 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="1"/>
-        <v>3.16</v>
+        <v>0.15</v>
       </c>
       <c r="E24" s="1">
-        <v>0.35000000000000003</v>
+        <v>1.6521739130434785E-2</v>
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3015,14 +3019,14 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" si="1"/>
-        <v>3.61</v>
+        <v>0.15</v>
       </c>
       <c r="E25" s="1">
-        <v>0.4</v>
+        <v>1.6086956521739131E-2</v>
       </c>
       <c r="F25">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -3038,14 +3042,14 @@
       </c>
       <c r="D26" s="1">
         <f t="shared" si="1"/>
-        <v>3.61</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.4</v>
+        <v>1.5652173913043479E-2</v>
       </c>
       <c r="F26">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3061,14 +3065,14 @@
       </c>
       <c r="D27" s="1">
         <f t="shared" si="1"/>
-        <v>3.61</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E27" s="1">
-        <v>0.4</v>
+        <v>1.5217391304347828E-2</v>
       </c>
       <c r="F27">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -3084,14 +3088,14 @@
       </c>
       <c r="D28" s="1">
         <f t="shared" si="1"/>
-        <v>3.61</v>
+        <v>0.13</v>
       </c>
       <c r="E28" s="1">
-        <v>0.4</v>
+        <v>1.4782608695652177E-2</v>
       </c>
       <c r="F28">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3107,14 +3111,14 @@
       </c>
       <c r="D29" s="1">
         <f t="shared" si="1"/>
-        <v>2.93</v>
+        <v>0.13</v>
       </c>
       <c r="E29" s="1">
-        <v>0.32500000000000001</v>
+        <v>1.4347826086956525E-2</v>
       </c>
       <c r="F29">
         <f t="shared" si="2"/>
-        <v>0.33</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -3122,22 +3126,22 @@
         <v>660</v>
       </c>
       <c r="B30" s="1">
-        <v>0.14400000000000002</v>
+        <v>4.7E-2</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="0"/>
-        <v>2.5442222222222219</v>
+        <v>9.6617978723404256</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="1"/>
-        <v>0.64</v>
+        <v>0.13</v>
       </c>
       <c r="E30" s="1">
-        <v>0.25</v>
+        <v>1.3913043478260872E-2</v>
       </c>
       <c r="F30">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3145,22 +3149,22 @@
         <v>670</v>
       </c>
       <c r="B31" s="1">
-        <v>0.23799999999999999</v>
+        <v>4.4000000000000004E-2</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="0"/>
-        <v>1.2198403361344539</v>
+        <v>10.385636363636362</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="1"/>
-        <v>0.21</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E31" s="1">
-        <v>0.17499999999999999</v>
+        <v>1.3478260869565221E-2</v>
       </c>
       <c r="F31">
         <f t="shared" si="2"/>
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3168,22 +3172,22 @@
         <v>680</v>
       </c>
       <c r="B32" s="1">
-        <v>0.33200000000000002</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="0"/>
-        <v>0.67202409638554195</v>
+        <v>11.215621951219511</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="1"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="E32" s="1">
-        <v>9.9999999999999978E-2</v>
+        <v>1.304347826086957E-2</v>
       </c>
       <c r="F32">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3191,22 +3195,22 @@
         <v>690</v>
       </c>
       <c r="B33" s="1">
-        <v>0.42599999999999999</v>
+        <v>3.8000000000000006E-2</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="0"/>
-        <v>0.38670892018779357</v>
+        <v>12.176894736842103</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>1.2608695652173917E-2</v>
       </c>
       <c r="F33">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3214,22 +3218,22 @@
         <v>700</v>
       </c>
       <c r="B34" s="1">
-        <v>0.52</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="0"/>
-        <v>0.22153846153846152</v>
+        <v>13.303214285714285</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>1.2173913043478264E-2</v>
       </c>
       <c r="F34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3237,22 +3241,22 @@
         <v>710</v>
       </c>
       <c r="B35" s="1">
-        <v>0.6</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="0"/>
-        <v>0.13333333333333336</v>
+        <v>14.641</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>1.1739130434782613E-2</v>
       </c>
       <c r="F35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3260,22 +3264,22 @@
         <v>720</v>
       </c>
       <c r="B36" s="1">
-        <v>0.62</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="0"/>
-        <v>0.11645161290322581</v>
+        <v>16.255879310344824</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>1.130434782608696E-2</v>
       </c>
       <c r="F36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3283,22 +3287,22 @@
         <v>730</v>
       </c>
       <c r="B37" s="1">
-        <v>0.62</v>
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="0"/>
-        <v>0.11645161290322581</v>
+        <v>18.243769230769228</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>1.0869565217391309E-2</v>
       </c>
       <c r="F37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -3306,22 +3310,22 @@
         <v>740</v>
       </c>
       <c r="B38" s="1">
-        <v>0.62</v>
+        <v>2.3000000000000003E-2</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="0"/>
-        <v>0.11645161290322581</v>
+        <v>20.750630434782604</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>1.0434782608695656E-2</v>
       </c>
       <c r="F38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -3329,36 +3333,36 @@
         <v>750</v>
       </c>
       <c r="B39" s="1">
-        <v>0.62</v>
+        <v>2.0000000000000004E-2</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="0"/>
-        <v>0.11645161290322581</v>
+        <v>24.009999999999994</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>1.0000000000000005E-2</v>
       </c>
       <c r="F39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <f>SUM(B2:B39)</f>
-        <v>9.5499999999999954</v>
+        <v>10.335000000000006</v>
       </c>
       <c r="D40" s="1">
         <f>SUM(D2:D39)</f>
-        <v>36.090000000000003</v>
-      </c>
-      <c r="E40">
+        <v>3.75</v>
+      </c>
+      <c r="E40" s="1">
         <f>SUM(E2:E39)</f>
-        <v>5.1549999999999994</v>
+        <v>2.0869999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -3409,15 +3413,15 @@
         <v>380</v>
       </c>
       <c r="B2" s="1">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="C2" s="1">
         <f xml:space="preserve"> (POWER(1-B2,2) / (2*B2))</f>
-        <v>15.681666666666667</v>
+        <v>4.05</v>
       </c>
       <c r="D2" s="1">
         <f>ROUND(E2*C2,2)</f>
-        <v>1.72</v>
+        <v>0.45</v>
       </c>
       <c r="E2" s="1">
         <v>0.11000000000000001</v>
@@ -3432,15 +3436,15 @@
         <v>390</v>
       </c>
       <c r="B3" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>0.10571428571428573</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C39" si="0" xml:space="preserve"> (POWER(1-B3,2) / (2*B3))</f>
-        <v>19.012499999999999</v>
+        <v>3.7825868725868719</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D39" si="1">ROUND(E3*C3,2)</f>
-        <v>1.43</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E3" s="1">
         <v>7.5000000000000011E-2</v>
@@ -3454,7 +3458,7 @@
       </c>
       <c r="I3" t="str">
         <f>_xlfn.VALUETOTEXT(_xlfn.TEXTJOIN(",",TRUE,$D$2:$D$39))</f>
-        <v>1.72,1.43,0.76,1,1.11,0.48,0.27,0.13,0.07,0.03,0.08,0.12,0.36,0.92,2.4,1.68,1.2,0.52,0.33,0.16,0.6,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
+        <v>0.45,0.28,0.14,0.21,0.18,0.16,0.13,0.1,0.07,0.04,0.06,0.12,0.27,0.35,0.72,0.72,0.72,0.47,0.29,0.14,0.78,0.01,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3462,15 +3466,15 @@
         <v>400</v>
       </c>
       <c r="B4" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>0.11142857142857145</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>19.012499999999999</v>
+        <v>3.5428937728937719</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>0.76</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E4" s="1">
         <v>4.0000000000000008E-2</v>
@@ -3484,7 +3488,7 @@
       </c>
       <c r="I4" t="str">
         <f>_xlfn.VALUETOTEXT(_xlfn.TEXTJOIN(",",TRUE,$F$2:$F$39))</f>
-        <v>0.11,0.08,0.04,0.06,0.06,0.05,0.05,0.04,0.03,0.02,0.02,0.02,0.04,0.08,0.1,0.07,0.05,0.03,0.04,0.04,0.04,0.04,0.04,0.03,0.03,0.03,0.03,0.03,0.03,0.02,0.02,0.02,0.02,0.02,0.02,0.01,0.01,0.01</v>
+        <v>0.11,0.08,0.04,0.06,0.06,0.05,0.05,0.04,0.03,0.02,0.02,0.02,0.03,0.03,0.03,0.03,0.03,0.03,0.03,0.04,0.05,0.06,0.06,0.07,0.07,0.08,0.08,0.15,0.16,0.16,0.17,0.17,0.18,0.18,0.17,0.15,0.14,0.12</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3492,15 +3496,15 @@
         <v>410</v>
       </c>
       <c r="B5" s="1">
-        <v>0.03</v>
+        <v>0.11714285714285716</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>15.681666666666667</v>
+        <v>3.3268641114982569</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.21</v>
       </c>
       <c r="E5" s="1">
         <v>6.3750000000000001E-2</v>
@@ -3515,15 +3519,15 @@
         <v>420</v>
       </c>
       <c r="B6" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>0.12285714285714289</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>19.012499999999999</v>
+        <v>3.1311960132890357</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>1.1100000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="E6" s="1">
         <v>5.8333333333333334E-2</v>
@@ -3538,15 +3542,15 @@
         <v>430</v>
       </c>
       <c r="B7" s="1">
-        <v>4.9999999999999975E-2</v>
+        <v>0.12857142857142861</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>9.0250000000000057</v>
+        <v>2.953174603174602</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>0.48</v>
+        <v>0.16</v>
       </c>
       <c r="E7" s="1">
         <v>5.291666666666666E-2</v>
@@ -3561,15 +3565,15 @@
         <v>440</v>
       </c>
       <c r="B8" s="1">
-        <v>7.4999999999999983E-2</v>
+        <v>0.13428571428571434</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>5.7041666666666684</v>
+        <v>2.7905471124620043</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>0.27</v>
+        <v>0.13</v>
       </c>
       <c r="E8" s="1">
         <v>4.7499999999999994E-2</v>
@@ -3584,15 +3588,15 @@
         <v>450</v>
       </c>
       <c r="B9" s="1">
-        <v>0.12</v>
+        <v>0.14000000000000004</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>3.2266666666666666</v>
+        <v>2.6414285714285706</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="1">
         <v>3.8749999999999993E-2</v>
@@ -3630,15 +3634,15 @@
         <v>470</v>
       </c>
       <c r="B11" s="1">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>1.6000000000000003</v>
+        <v>1.8677777777777782</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E11" s="1">
         <v>0.02</v>
@@ -3653,15 +3657,15 @@
         <v>480</v>
       </c>
       <c r="B12" s="1">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>4.05</v>
+        <v>3.2266666666666666</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E12" s="1">
         <v>0.02</v>
@@ -3707,14 +3711,14 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>0.36</v>
+        <v>0.27</v>
       </c>
       <c r="E14" s="1">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3730,14 +3734,14 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>0.92</v>
+        <v>0.35</v>
       </c>
       <c r="E15" s="1">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3753,14 +3757,14 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
-        <v>2.4</v>
+        <v>0.72</v>
       </c>
       <c r="E16" s="1">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3776,14 +3780,14 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="1"/>
-        <v>1.68</v>
+        <v>0.72</v>
       </c>
       <c r="E17" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3799,14 +3803,14 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="1"/>
-        <v>1.2</v>
+        <v>0.72</v>
       </c>
       <c r="E18" s="1">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3822,10 +3826,10 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="1"/>
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="E19" s="1">
-        <v>3.3000000000000002E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
@@ -3845,14 +3849,14 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="1"/>
-        <v>0.33</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>3.6500000000000005E-2</v>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3868,10 +3872,10 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="1"/>
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>4.0000000000000008E-2</v>
+        <v>3.4999999999999996E-2</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
@@ -3891,14 +3895,14 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.78</v>
       </c>
       <c r="E22" s="1">
-        <v>3.8333333333333337E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3914,14 +3918,14 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E23" s="1">
-        <v>3.6666666666666674E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3940,11 +3944,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3963,11 +3967,11 @@
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>3.333333333333334E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F25">
         <f t="shared" si="2"/>
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -3986,11 +3990,11 @@
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>3.1666666666666669E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F26">
         <f t="shared" si="2"/>
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -4009,11 +4013,11 @@
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>3.0000000000000006E-2</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="F27">
         <f t="shared" si="2"/>
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -4032,11 +4036,11 @@
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>2.8333333333333335E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F28">
         <f t="shared" si="2"/>
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -4055,11 +4059,11 @@
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>2.6666666666666672E-2</v>
+        <v>0.15</v>
       </c>
       <c r="F29">
         <f t="shared" si="2"/>
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -4078,11 +4082,11 @@
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>2.5000000000000005E-2</v>
+        <v>0.155</v>
       </c>
       <c r="F30">
         <f t="shared" si="2"/>
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -4101,11 +4105,11 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>2.3333333333333338E-2</v>
+        <v>0.16</v>
       </c>
       <c r="F31">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -4124,11 +4128,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>2.1666666666666671E-2</v>
+        <v>0.16499999999999998</v>
       </c>
       <c r="F32">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -4147,11 +4151,11 @@
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>2.0000000000000004E-2</v>
+        <v>0.16999999999999998</v>
       </c>
       <c r="F33">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -4170,11 +4174,11 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>1.8333333333333337E-2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="F34">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -4193,11 +4197,11 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>1.666666666666667E-2</v>
+        <v>0.18</v>
       </c>
       <c r="F35">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -4216,11 +4220,11 @@
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>1.5000000000000003E-2</v>
+        <v>0.16499999999999998</v>
       </c>
       <c r="F36">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -4239,11 +4243,11 @@
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>1.3333333333333336E-2</v>
+        <v>0.15</v>
       </c>
       <c r="F37">
         <f t="shared" si="2"/>
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -4262,11 +4266,11 @@
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>1.1666666666666669E-2</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="F38">
         <f t="shared" si="2"/>
-        <v>0.01</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -4285,25 +4289,21 @@
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>1.0000000000000002E-2</v>
+        <v>0.12</v>
       </c>
       <c r="F39">
         <f t="shared" si="2"/>
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <f>SUM(B2:B39)</f>
-        <v>16.164999999999999</v>
+        <v>16.745000000000001</v>
       </c>
       <c r="D40" s="1">
         <f>SUM(D2:D39)</f>
-        <v>15.37</v>
-      </c>
-      <c r="E40">
-        <f>SUM(E2:E39)</f>
-        <v>1.4607500000000002</v>
+        <v>6.4099999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -4316,8 +4316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90129177-B016-4586-86DB-68B54357AFD7}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4325,8 +4325,8 @@
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4342,7 +4342,7 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
@@ -4354,22 +4354,22 @@
         <v>380</v>
       </c>
       <c r="B2" s="1">
-        <v>4.9999999999999989E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C2" s="1">
         <f xml:space="preserve"> (POWER(1-B2,2) / (2*B2))</f>
-        <v>9.0250000000000021</v>
+        <v>4.05</v>
       </c>
       <c r="D2" s="1">
         <f>ROUND(E2*C2,2)</f>
-        <v>0.9</v>
+        <v>0.24</v>
       </c>
       <c r="E2" s="1">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="F2">
         <f>ROUND(E2,2)</f>
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4377,29 +4377,29 @@
         <v>390</v>
       </c>
       <c r="B3" s="1">
-        <v>0.19999999999999993</v>
+        <v>0.08</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C39" si="0" xml:space="preserve"> (POWER(1-B3,2) / (2*B3))</f>
-        <v>1.600000000000001</v>
+        <v>5.29</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D39" si="1">ROUND(E3*C3,2)</f>
-        <v>0.16</v>
+        <v>0.37</v>
       </c>
       <c r="E3" s="1">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F39" si="2">ROUND(E3,2)</f>
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
       <c r="I3" t="str">
         <f>_xlfn.VALUETOTEXT(_xlfn.TEXTJOIN(",",TRUE,$D$2:$D$39))</f>
-        <v>0.9,0.16,0.13,0.11,0.09,0.08,0.07,0.06,0.07,0.1,0.1,0.12,0.1,0.01,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0.01,0.01,0.01,0.01</v>
+        <v>0.24,0.37,0.34,0.35,0.32,0.25,0.19,0.16,0.13,0.11,0.09,0.08,0.07,0.08,0.06,0.01,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4407,29 +4407,29 @@
         <v>400</v>
       </c>
       <c r="B4" s="1">
-        <v>0.22727272727272721</v>
+        <v>8.666666666666667E-2</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>1.3136363636363644</v>
+        <v>4.8125641025641022</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>0.13</v>
+        <v>0.34</v>
       </c>
       <c r="E4" s="1">
-        <v>9.9999999999999978E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
       </c>
       <c r="I4" t="str">
         <f>_xlfn.VALUETOTEXT(_xlfn.TEXTJOIN(",",TRUE,$F$2:$F$39))</f>
-        <v>0.1,0.1,0.1,0.1,0.1,0.1,0.1,0.1,0.15,0.25,0.3,0.4,0.4,0.55,0.62,0.65,0.7,0.72,0.75,0.72,0.72,0.72,0.7,0.69,0.68,0.67,0.66,0.64,0.63,0.62,0.61,0.6,0.55,0.52,0.49,0.46,0.43,0.4</v>
+        <v>0.06,0.07,0.07,0.08,0.08,0.09,0.09,0.1,0.1,0.11,0.11,0.12,0.12,0.18,0.24,0.3,0.29,0.28,0.26,0.25,0.19,0.18,0.12,0.1,0.09,0.09,0.08,0.08,0.08,0.07,0.07,0.07,0.07,0.06,0.06,0.06,0.05,0.05</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4437,22 +4437,22 @@
         <v>410</v>
       </c>
       <c r="B5" s="1">
-        <v>0.25454545454545452</v>
+        <v>9.3333333333333338E-2</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>1.0915584415584416</v>
+        <v>4.4038095238095227</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>0.11</v>
+        <v>0.35</v>
       </c>
       <c r="E5" s="1">
-        <v>9.9999999999999992E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4460,22 +4460,22 @@
         <v>420</v>
       </c>
       <c r="B6" s="1">
-        <v>0.28181818181818175</v>
+        <v>0.1</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.91510263929618807</v>
+        <v>4.05</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>0.09</v>
+        <v>0.32</v>
       </c>
       <c r="E6" s="1">
-        <v>9.9999999999999992E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4483,22 +4483,22 @@
         <v>430</v>
       </c>
       <c r="B7" s="1">
-        <v>0.30909090909090908</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.77219251336898398</v>
+        <v>2.8166666666666673</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="E7" s="1">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4506,22 +4506,22 @@
         <v>440</v>
       </c>
       <c r="B8" s="1">
-        <v>0.33636363636363631</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.65466830466830483</v>
+        <v>2.0833333333333344</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.19</v>
       </c>
       <c r="E8" s="1">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I8" t="str">
         <f>_xlfn.VALUETOTEXT(I6)</f>
@@ -4533,18 +4533,18 @@
         <v>450</v>
       </c>
       <c r="B9" s="1">
-        <v>0.36363636363636365</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>0.55681818181818177</v>
+        <v>1.6000000000000012</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="E9" s="1">
-        <v>0.10000000000000009</v>
+        <v>0.1</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
@@ -4556,22 +4556,22 @@
         <v>460</v>
       </c>
       <c r="B10" s="1">
-        <v>0.39090909090909087</v>
+        <v>0.2333333333333332</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.47452431289640601</v>
+        <v>1.2595238095238108</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.13</v>
       </c>
       <c r="E10" s="1">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4579,22 +4579,22 @@
         <v>470</v>
       </c>
       <c r="B11" s="1">
-        <v>0.41818181818181821</v>
+        <v>0.2666666666666665</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0.40474308300395251</v>
+        <v>1.0083333333333344</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E11" s="1">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4602,22 +4602,22 @@
         <v>480</v>
       </c>
       <c r="B12" s="1">
-        <v>0.44545454545454544</v>
+        <v>0.29999999999999982</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>0.34517625231910948</v>
+        <v>0.81666666666666765</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E12" s="1">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4625,22 +4625,22 @@
         <v>490</v>
       </c>
       <c r="B13" s="1">
-        <v>0.47272727272727277</v>
+        <v>0.33333333333333309</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>0.29405594405594399</v>
+        <v>0.66666666666666774</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+      <c r="E13" s="1">
         <v>0.12</v>
       </c>
-      <c r="E13" s="1">
-        <v>0.4</v>
-      </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -4648,22 +4648,22 @@
         <v>500</v>
       </c>
       <c r="B14" s="1">
-        <v>0.5</v>
+        <v>0.36666666666666636</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.54696969696969788</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E14" s="1">
-        <v>0.4</v>
+        <v>0.12</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4671,22 +4671,22 @@
         <v>510</v>
       </c>
       <c r="B15" s="1">
-        <v>0.8</v>
+        <v>0.39999999999999969</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>2.4999999999999988E-2</v>
+        <v>0.45000000000000084</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E15" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.18</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4694,22 +4694,22 @@
         <v>520</v>
       </c>
       <c r="B16" s="1">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>4.6391752577319673E-4</v>
+        <v>0.25</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E16" s="1">
-        <v>0.62</v>
+        <v>0.24</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>0.62</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4717,22 +4717,22 @@
         <v>530</v>
       </c>
       <c r="B17" s="1">
-        <v>0.97</v>
+        <v>0.82000000000000006</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="0"/>
-        <v>4.6391752577319673E-4</v>
+        <v>1.9756097560975596E-2</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E17" s="1">
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4740,22 +4740,22 @@
         <v>540</v>
       </c>
       <c r="B18" s="1">
-        <v>0.97</v>
+        <v>0.90999999999999992</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
-        <v>4.6391752577319673E-4</v>
+        <v>4.4505494505494595E-3</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0.7</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F18" s="1">
         <f>ROUND(E18,2)</f>
-        <v>0.7</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4774,11 +4774,11 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0.72</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>0.72</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4797,11 +4797,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0.75</v>
+        <v>0.26</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4809,22 +4809,22 @@
         <v>570</v>
       </c>
       <c r="B21" s="1">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3157894736842129E-3</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0.72</v>
+        <v>0.25</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>0.72</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4832,22 +4832,22 @@
         <v>580</v>
       </c>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>0.94333333333333336</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.7020023557126017E-3</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>0.72</v>
+        <v>0.19</v>
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
-        <v>0.72</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -4855,22 +4855,22 @@
         <v>590</v>
       </c>
       <c r="B23" s="1">
-        <v>0.97</v>
+        <v>0.93666666666666665</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>4.6391752577319673E-4</v>
+        <v>2.1411625148279965E-3</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>0.72</v>
+        <v>0.18</v>
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
-        <v>0.72</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4889,11 +4889,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>0.7</v>
+        <v>0.12</v>
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
-        <v>0.7</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4912,11 +4912,11 @@
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>0.68888888888888877</v>
+        <v>0.1</v>
       </c>
       <c r="F25">
         <f t="shared" si="2"/>
-        <v>0.69</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -4935,11 +4935,11 @@
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>0.6777777777777777</v>
+        <v>0.09</v>
       </c>
       <c r="F26">
         <f t="shared" si="2"/>
-        <v>0.68</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -4958,11 +4958,11 @@
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>0.66666666666666663</v>
+        <v>8.6923076923076922E-2</v>
       </c>
       <c r="F27">
         <f t="shared" si="2"/>
-        <v>0.67</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -4970,22 +4970,22 @@
         <v>640</v>
       </c>
       <c r="B28" s="1">
-        <v>0.90866666666666662</v>
+        <v>0.85</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="0"/>
-        <v>4.5901198337001759E-3</v>
+        <v>1.3235294117647062E-2</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>0.65555555555555545</v>
+        <v>8.3846153846153834E-2</v>
       </c>
       <c r="F28">
         <f t="shared" si="2"/>
-        <v>0.66</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -4993,22 +4993,22 @@
         <v>650</v>
       </c>
       <c r="B29" s="1">
-        <v>0.90333333333333332</v>
+        <v>0.8</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="0"/>
-        <v>5.1722017220172216E-3</v>
+        <v>2.4999999999999988E-2</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>0.64444444444444438</v>
+        <v>8.076923076923076E-2</v>
       </c>
       <c r="F29">
         <f t="shared" si="2"/>
-        <v>0.64</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -5016,22 +5016,22 @@
         <v>660</v>
       </c>
       <c r="B30" s="1">
-        <v>0.89799999999999991</v>
+        <v>0.75</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="0"/>
-        <v>5.7928730512249553E-3</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>0.6333333333333333</v>
+        <v>7.7692307692307672E-2</v>
       </c>
       <c r="F30">
         <f t="shared" si="2"/>
-        <v>0.63</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -5039,22 +5039,22 @@
         <v>670</v>
       </c>
       <c r="B31" s="1">
-        <v>0.89266666666666661</v>
+        <v>0.74222222222222223</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="0"/>
-        <v>6.4528254916604499E-3</v>
+        <v>4.4763805721889545E-2</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>0.62222222222222212</v>
+        <v>7.4615384615384597E-2</v>
       </c>
       <c r="F31">
         <f t="shared" si="2"/>
-        <v>0.62</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5062,22 +5062,22 @@
         <v>680</v>
       </c>
       <c r="B32" s="1">
-        <v>0.8873333333333332</v>
+        <v>0.73444444444444446</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="0"/>
-        <v>7.1527673428500062E-3</v>
+        <v>4.8008909060346272E-2</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>0.61111111111111105</v>
+        <v>7.1538461538461523E-2</v>
       </c>
       <c r="F32">
         <f t="shared" si="2"/>
-        <v>0.61</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -5085,22 +5085,22 @@
         <v>690</v>
       </c>
       <c r="B33" s="1">
-        <v>0.8819999999999999</v>
+        <v>0.72666666666666668</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="0"/>
-        <v>7.8934240362811946E-3</v>
+        <v>5.1406727828746168E-2</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>0.59999999999999987</v>
+        <v>6.8461538461538435E-2</v>
       </c>
       <c r="F33">
         <f t="shared" si="2"/>
-        <v>0.6</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -5108,22 +5108,22 @@
         <v>700</v>
       </c>
       <c r="B34" s="1">
-        <v>0.87666666666666648</v>
+        <v>0.71888888888888891</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="0"/>
-        <v>8.675538656527277E-3</v>
+        <v>5.4962218787566533E-2</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>0.55000000000000004</v>
+        <v>6.538461538461536E-2</v>
       </c>
       <c r="F34">
         <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -5131,22 +5131,22 @@
         <v>710</v>
       </c>
       <c r="B35" s="1">
-        <v>0.87133333333333318</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="0"/>
-        <v>9.4998724815098419E-3</v>
+        <v>5.8680555555555541E-2</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>0.52000000000000013</v>
+        <v>6.2307692307692272E-2</v>
       </c>
       <c r="F35">
         <f t="shared" si="2"/>
-        <v>0.52</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -5154,22 +5154,22 @@
         <v>720</v>
       </c>
       <c r="B36" s="1">
-        <v>0.86599999999999977</v>
+        <v>0.70333333333333337</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="0"/>
-        <v>1.0367205542725211E-2</v>
+        <v>6.2567140600315943E-2</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>0.4900000000000001</v>
+        <v>5.9230769230769198E-2</v>
       </c>
       <c r="F36">
         <f t="shared" si="2"/>
-        <v>0.49</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5177,22 +5177,22 @@
         <v>730</v>
       </c>
       <c r="B37" s="1">
-        <v>0.86066666666666647</v>
+        <v>0.69555555555555559</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="0"/>
-        <v>1.127833720630006E-2</v>
+        <v>6.6627618033368807E-2</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>0.46000000000000013</v>
+        <v>5.6153846153846117E-2</v>
       </c>
       <c r="F37">
         <f t="shared" si="2"/>
-        <v>0.46</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -5200,22 +5200,22 @@
         <v>740</v>
       </c>
       <c r="B38" s="1">
-        <v>0.85533333333333306</v>
+        <v>0.68777777777777782</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="0"/>
-        <v>1.2234086775785968E-2</v>
+        <v>7.0867887273379976E-2</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>0.43000000000000016</v>
+        <v>5.3076923076923035E-2</v>
       </c>
       <c r="F38">
         <f t="shared" si="2"/>
-        <v>0.43</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -5223,36 +5223,36 @@
         <v>750</v>
       </c>
       <c r="B39" s="1">
-        <v>0.84999999999999964</v>
+        <v>0.68</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="0"/>
-        <v>1.3235294117647126E-2</v>
+        <v>7.5294117647058789E-2</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>0.40000000000000019</v>
+        <v>4.9999999999999954E-2</v>
       </c>
       <c r="F39">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <f>SUM(B2:B39)</f>
-        <v>27.169999999999995</v>
+        <v>22.407999999999998</v>
       </c>
       <c r="D40" s="1">
         <f>SUM(D2:D39)</f>
-        <v>2.1399999999999997</v>
-      </c>
-      <c r="E40">
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="E40" s="10">
         <f>SUM(E2:E39)</f>
-        <v>17.799999999999994</v>
+        <v>4.5699999999999994</v>
       </c>
     </row>
   </sheetData>
